--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H2">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I2">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J2">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.009520000000000001</v>
+        <v>0.2640103333333333</v>
       </c>
       <c r="N2">
-        <v>0.02856</v>
+        <v>0.792031</v>
       </c>
       <c r="O2">
-        <v>0.0009583584527718874</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="P2">
-        <v>0.0009583584527718874</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="Q2">
-        <v>2.173293645786667</v>
+        <v>87.93154959048833</v>
       </c>
       <c r="R2">
-        <v>19.55964281208</v>
+        <v>791.3839463143951</v>
       </c>
       <c r="S2">
-        <v>0.0005851543868879811</v>
+        <v>0.02811157833964708</v>
       </c>
       <c r="T2">
-        <v>0.0005851543868879811</v>
+        <v>0.02811157833964708</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H3">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I3">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J3">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.23744</v>
       </c>
       <c r="O3">
-        <v>0.1086354338004839</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="P3">
-        <v>0.1086354338004839</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="Q3">
-        <v>246.3553144473244</v>
+        <v>359.4216841338667</v>
       </c>
       <c r="R3">
-        <v>2217.19783002592</v>
+        <v>3234.7951572048</v>
       </c>
       <c r="S3">
-        <v>0.06633060988398549</v>
+        <v>0.114906548076915</v>
       </c>
       <c r="T3">
-        <v>0.06633060988398549</v>
+        <v>0.114906548076915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H4">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I4">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J4">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>8.844986</v>
+        <v>0.003021333333333333</v>
       </c>
       <c r="N4">
-        <v>26.534958</v>
+        <v>0.009063999999999999</v>
       </c>
       <c r="O4">
-        <v>0.8904062077467443</v>
+        <v>0.0004236251205583625</v>
       </c>
       <c r="P4">
-        <v>0.8904062077467442</v>
+        <v>0.0004236251205583626</v>
       </c>
       <c r="Q4">
-        <v>2019.1966250916</v>
+        <v>1.006288346653333</v>
       </c>
       <c r="R4">
-        <v>18172.76962582439</v>
+        <v>9.056595119879999</v>
       </c>
       <c r="S4">
-        <v>0.543664113430964</v>
+        <v>0.0003217088044161921</v>
       </c>
       <c r="T4">
-        <v>0.5436641134309639</v>
+        <v>0.0003217088044161922</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.66021733333334</v>
+        <v>333.061015</v>
       </c>
       <c r="H5">
-        <v>169.980652</v>
+        <v>999.183045</v>
       </c>
       <c r="I5">
-        <v>0.1515441798784964</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J5">
-        <v>0.1515441798784964</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.009520000000000001</v>
+        <v>5.782978</v>
       </c>
       <c r="N5">
-        <v>0.02856</v>
+        <v>17.348934</v>
       </c>
       <c r="O5">
-        <v>0.0009583584527718874</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="P5">
-        <v>0.0009583584527718874</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="Q5">
-        <v>0.5394052690133334</v>
+        <v>1926.08452240267</v>
       </c>
       <c r="R5">
-        <v>4.854647421120001</v>
+        <v>17334.76070162403</v>
       </c>
       <c r="S5">
-        <v>0.0001452336457549404</v>
+        <v>0.6157661975987894</v>
       </c>
       <c r="T5">
-        <v>0.0001452336457549404</v>
+        <v>0.6157661975987894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.66021733333334</v>
+        <v>333.061015</v>
       </c>
       <c r="H6">
-        <v>169.980652</v>
+        <v>999.183045</v>
       </c>
       <c r="I6">
-        <v>0.1515441798784964</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J6">
-        <v>0.1515441798784964</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.079146666666667</v>
+        <v>0.002935666666666667</v>
       </c>
       <c r="N6">
-        <v>3.23744</v>
+        <v>0.008807000000000001</v>
       </c>
       <c r="O6">
-        <v>0.1086354338004839</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="P6">
-        <v>0.1086354338004839</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="Q6">
-        <v>61.14468466787557</v>
+        <v>0.9777561197016666</v>
       </c>
       <c r="R6">
-        <v>550.3021620108801</v>
+        <v>8.799805077315</v>
       </c>
       <c r="S6">
-        <v>0.01646306772103901</v>
+        <v>0.0003125870962592017</v>
       </c>
       <c r="T6">
-        <v>0.01646306772103901</v>
+        <v>0.0003125870962592017</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H7">
         <v>169.980652</v>
       </c>
       <c r="I7">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J7">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>8.844986</v>
+        <v>0.2640103333333333</v>
       </c>
       <c r="N7">
-        <v>26.534958</v>
+        <v>0.792031</v>
       </c>
       <c r="O7">
-        <v>0.8904062077467443</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="P7">
-        <v>0.8904062077467442</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="Q7">
-        <v>501.1588290702908</v>
+        <v>14.95888286491244</v>
       </c>
       <c r="R7">
-        <v>4510.429461632616</v>
+        <v>134.629945784212</v>
       </c>
       <c r="S7">
-        <v>0.1349358785117024</v>
+        <v>0.004782331364442125</v>
       </c>
       <c r="T7">
-        <v>0.1349358785117024</v>
+        <v>0.004782331364442125</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,61 +915,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6468253333333333</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H8">
-        <v>1.940476</v>
+        <v>169.980652</v>
       </c>
       <c r="I8">
-        <v>0.001730007742257072</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J8">
-        <v>0.001730007742257072</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.009520000000000001</v>
+        <v>1.079146666666667</v>
       </c>
       <c r="N8">
-        <v>0.02856</v>
+        <v>3.23744</v>
       </c>
       <c r="O8">
-        <v>0.0009583584527718874</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="P8">
-        <v>0.0009583584527718874</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="Q8">
-        <v>0.006157777173333333</v>
+        <v>61.14468466787555</v>
       </c>
       <c r="R8">
-        <v>0.05541999456</v>
+        <v>550.30216201088</v>
       </c>
       <c r="S8">
-        <v>1.657967543152874E-06</v>
+        <v>0.01954785968289059</v>
       </c>
       <c r="T8">
-        <v>1.657967543152874E-06</v>
+        <v>0.01954785968289059</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6468253333333333</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H9">
-        <v>1.940476</v>
+        <v>169.980652</v>
       </c>
       <c r="I9">
-        <v>0.001730007742257072</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J9">
-        <v>0.001730007742257072</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.079146666666667</v>
+        <v>0.003021333333333333</v>
       </c>
       <c r="N9">
-        <v>3.23744</v>
+        <v>0.009063999999999999</v>
       </c>
       <c r="O9">
-        <v>0.1086354338004839</v>
+        <v>0.0004236251205583625</v>
       </c>
       <c r="P9">
-        <v>0.1086354338004839</v>
+        <v>0.0004236251205583626</v>
       </c>
       <c r="Q9">
-        <v>0.6980194023822222</v>
+        <v>0.1711894033031111</v>
       </c>
       <c r="R9">
-        <v>6.28217462144</v>
+        <v>1.540704629728</v>
       </c>
       <c r="S9">
-        <v>0.0001879401415582927</v>
+        <v>5.472898344547551E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001879401415582927</v>
+        <v>5.472898344547552E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6468253333333333</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H10">
-        <v>1.940476</v>
+        <v>169.980652</v>
       </c>
       <c r="I10">
-        <v>0.001730007742257072</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J10">
-        <v>0.001730007742257072</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.844986</v>
+        <v>5.782978</v>
       </c>
       <c r="N10">
-        <v>26.534958</v>
+        <v>17.348934</v>
       </c>
       <c r="O10">
-        <v>0.8904062077467443</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="P10">
-        <v>0.8904062077467442</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="Q10">
-        <v>5.721161017778666</v>
+        <v>327.6647903138853</v>
       </c>
       <c r="R10">
-        <v>51.490449160008</v>
+        <v>2948.983112824968</v>
       </c>
       <c r="S10">
-        <v>0.001540409633155627</v>
+        <v>0.1047539189852877</v>
       </c>
       <c r="T10">
-        <v>0.001540409633155627</v>
+        <v>0.1047539189852877</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>86.74265433333335</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H11">
-        <v>260.227963</v>
+        <v>169.980652</v>
       </c>
       <c r="I11">
-        <v>0.2320030707629402</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J11">
-        <v>0.2320030707629402</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,33 +1119,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.009520000000000001</v>
+        <v>0.002935666666666667</v>
       </c>
       <c r="N11">
-        <v>0.02856</v>
+        <v>0.008807000000000001</v>
       </c>
       <c r="O11">
-        <v>0.0009583584527718874</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="P11">
-        <v>0.0009583584527718874</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="Q11">
-        <v>0.8257900692533335</v>
+        <v>0.1663355113515556</v>
       </c>
       <c r="R11">
-        <v>7.432110623280002</v>
+        <v>1.497019602164</v>
       </c>
       <c r="S11">
-        <v>0.0002223421039346981</v>
+        <v>5.317720180983042E-05</v>
       </c>
       <c r="T11">
-        <v>0.0002223421039346981</v>
+        <v>5.317720180983042E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.74265433333335</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H12">
-        <v>260.227963</v>
+        <v>2.100199</v>
       </c>
       <c r="I12">
-        <v>0.2320030707629402</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J12">
-        <v>0.2320030707629402</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.079146666666667</v>
+        <v>0.2640103333333333</v>
       </c>
       <c r="N12">
-        <v>3.23744</v>
+        <v>0.792031</v>
       </c>
       <c r="O12">
-        <v>0.1086354338004839</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="P12">
-        <v>0.1086354338004839</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="Q12">
-        <v>93.60804628163558</v>
+        <v>0.1848247460187778</v>
       </c>
       <c r="R12">
-        <v>842.4724165347202</v>
+        <v>1.663422714169</v>
       </c>
       <c r="S12">
-        <v>0.02520375423537636</v>
+        <v>5.908818110234092E-05</v>
       </c>
       <c r="T12">
-        <v>0.02520375423537636</v>
+        <v>5.908818110234091E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>86.74265433333335</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H13">
-        <v>260.227963</v>
+        <v>2.100199</v>
       </c>
       <c r="I13">
-        <v>0.2320030707629402</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J13">
-        <v>0.2320030707629402</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.844986</v>
+        <v>1.079146666666667</v>
       </c>
       <c r="N13">
-        <v>26.534958</v>
+        <v>3.23744</v>
       </c>
       <c r="O13">
-        <v>0.8904062077467443</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="P13">
-        <v>0.8904062077467442</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="Q13">
-        <v>767.2375631811728</v>
+        <v>0.7554742500622222</v>
       </c>
       <c r="R13">
-        <v>6905.138068630555</v>
+        <v>6.799268250560001</v>
       </c>
       <c r="S13">
-        <v>0.2065769744236291</v>
+        <v>0.0002415239315480866</v>
       </c>
       <c r="T13">
-        <v>0.2065769744236291</v>
+        <v>0.0002415239315480866</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8022086666666667</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H14">
-        <v>2.406626</v>
+        <v>2.100199</v>
       </c>
       <c r="I14">
-        <v>0.002145598096919091</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J14">
-        <v>0.002145598096919091</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,33 +1305,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.009520000000000001</v>
+        <v>0.003021333333333333</v>
       </c>
       <c r="N14">
-        <v>0.02856</v>
+        <v>0.009063999999999999</v>
       </c>
       <c r="O14">
-        <v>0.0009583584527718874</v>
+        <v>0.0004236251205583625</v>
       </c>
       <c r="P14">
-        <v>0.0009583584527718874</v>
+        <v>0.0004236251205583626</v>
       </c>
       <c r="Q14">
-        <v>0.007637026506666668</v>
+        <v>0.002115133748444444</v>
       </c>
       <c r="R14">
-        <v>0.06873323856000001</v>
+        <v>0.019036203736</v>
       </c>
       <c r="S14">
-        <v>2.056252072433686E-06</v>
+        <v>6.762049383314769E-07</v>
       </c>
       <c r="T14">
-        <v>2.056252072433686E-06</v>
+        <v>6.762049383314769E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8022086666666667</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H15">
-        <v>2.406626</v>
+        <v>2.100199</v>
       </c>
       <c r="I15">
-        <v>0.002145598096919091</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J15">
-        <v>0.002145598096919091</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.079146666666667</v>
+        <v>5.782978</v>
       </c>
       <c r="N15">
-        <v>3.23744</v>
+        <v>17.348934</v>
       </c>
       <c r="O15">
-        <v>0.1086354338004839</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="P15">
-        <v>0.1086354338004839</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="Q15">
-        <v>0.8657008086044445</v>
+        <v>4.048468204207333</v>
       </c>
       <c r="R15">
-        <v>7.791307277440001</v>
+        <v>36.436213837866</v>
       </c>
       <c r="S15">
-        <v>0.000233087980020298</v>
+        <v>0.001294288928242152</v>
       </c>
       <c r="T15">
-        <v>0.000233087980020298</v>
+        <v>0.001294288928242152</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8022086666666667</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H16">
-        <v>2.406626</v>
+        <v>2.100199</v>
       </c>
       <c r="I16">
-        <v>0.002145598096919091</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J16">
-        <v>0.002145598096919091</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>8.844986</v>
+        <v>0.002935666666666667</v>
       </c>
       <c r="N16">
-        <v>26.534958</v>
+        <v>0.008807000000000001</v>
       </c>
       <c r="O16">
-        <v>0.8904062077467443</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="P16">
-        <v>0.8904062077467442</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="Q16">
-        <v>7.095524425745334</v>
+        <v>0.002055161399222222</v>
       </c>
       <c r="R16">
-        <v>63.85971983170801</v>
+        <v>0.018496452593</v>
       </c>
       <c r="S16">
-        <v>0.001910453864826359</v>
+        <v>6.570318724498366E-07</v>
       </c>
       <c r="T16">
-        <v>0.001910453864826359</v>
+        <v>6.570318724498364E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7467493333333334</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H17">
-        <v>2.240248</v>
+        <v>139.333873</v>
       </c>
       <c r="I17">
-        <v>0.00199726581754988</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J17">
-        <v>0.001997265817549881</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.009520000000000001</v>
+        <v>0.2640103333333333</v>
       </c>
       <c r="N17">
-        <v>0.02856</v>
+        <v>0.792031</v>
       </c>
       <c r="O17">
-        <v>0.0009583584527718874</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="P17">
-        <v>0.0009583584527718874</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="Q17">
-        <v>0.007109053653333334</v>
+        <v>12.26186075178478</v>
       </c>
       <c r="R17">
-        <v>0.06398148288000001</v>
+        <v>110.356746766063</v>
       </c>
       <c r="S17">
-        <v>1.914096578681282E-06</v>
+        <v>0.003920097629564898</v>
       </c>
       <c r="T17">
-        <v>1.914096578681283E-06</v>
+        <v>0.003920097629564898</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7467493333333334</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H18">
-        <v>2.240248</v>
+        <v>139.333873</v>
       </c>
       <c r="I18">
-        <v>0.00199726581754988</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J18">
-        <v>0.001997265817549881</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,84 +1559,828 @@
         <v>3.23744</v>
       </c>
       <c r="O18">
-        <v>0.1086354338004839</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="P18">
-        <v>0.1086354338004839</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="Q18">
-        <v>0.8058520539022223</v>
+        <v>50.12056153390222</v>
       </c>
       <c r="R18">
-        <v>7.252668485120002</v>
+        <v>451.08505380512</v>
       </c>
       <c r="S18">
-        <v>0.0002169738385044093</v>
+        <v>0.01602346482632445</v>
       </c>
       <c r="T18">
-        <v>0.0002169738385044094</v>
+        <v>0.01602346482632445</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>46.44462433333333</v>
+      </c>
+      <c r="H19">
+        <v>139.333873</v>
+      </c>
+      <c r="I19">
+        <v>0.1058992524650125</v>
+      </c>
+      <c r="J19">
+        <v>0.1058992524650125</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.0004236251205583625</v>
+      </c>
+      <c r="P19">
+        <v>0.0004236251205583626</v>
+      </c>
+      <c r="Q19">
+        <v>0.1403246916524444</v>
+      </c>
+      <c r="R19">
+        <v>1.262922224872</v>
+      </c>
+      <c r="S19">
+        <v>4.486158359253139E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.486158359253139E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>46.44462433333333</v>
+      </c>
+      <c r="H20">
+        <v>139.333873</v>
+      </c>
+      <c r="I20">
+        <v>0.1058992524650125</v>
+      </c>
+      <c r="J20">
+        <v>0.1058992524650125</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.782978</v>
+      </c>
+      <c r="N20">
+        <v>17.348934</v>
+      </c>
+      <c r="O20">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="P20">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="Q20">
+        <v>268.5882407379313</v>
+      </c>
+      <c r="R20">
+        <v>2417.294166641382</v>
+      </c>
+      <c r="S20">
+        <v>0.08586723884403244</v>
+      </c>
+      <c r="T20">
+        <v>0.08586723884403244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>46.44462433333333</v>
+      </c>
+      <c r="H21">
+        <v>139.333873</v>
+      </c>
+      <c r="I21">
+        <v>0.1058992524650125</v>
+      </c>
+      <c r="J21">
+        <v>0.1058992524650125</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="P21">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="Q21">
+        <v>0.1363459355012222</v>
+      </c>
+      <c r="R21">
+        <v>1.227113419511</v>
+      </c>
+      <c r="S21">
+        <v>4.358958149817123E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.358958149817122E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.225063333333333</v>
+      </c>
+      <c r="H22">
+        <v>3.67519</v>
+      </c>
+      <c r="I22">
+        <v>0.00279328970972399</v>
+      </c>
+      <c r="J22">
+        <v>0.00279328970972399</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2640103333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.792031</v>
+      </c>
+      <c r="O22">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="P22">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="Q22">
+        <v>0.3234293789877778</v>
+      </c>
+      <c r="R22">
+        <v>2.91086441089</v>
+      </c>
+      <c r="S22">
+        <v>0.0001033998646345</v>
+      </c>
+      <c r="T22">
+        <v>0.0001033998646345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.225063333333333</v>
+      </c>
+      <c r="H23">
+        <v>3.67519</v>
+      </c>
+      <c r="I23">
+        <v>0.00279328970972399</v>
+      </c>
+      <c r="J23">
+        <v>0.00279328970972399</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.079146666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.23744</v>
+      </c>
+      <c r="O23">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="P23">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="Q23">
+        <v>1.322023012622222</v>
+      </c>
+      <c r="R23">
+        <v>11.8982071136</v>
+      </c>
+      <c r="S23">
+        <v>0.0004226486813802942</v>
+      </c>
+      <c r="T23">
+        <v>0.0004226486813802942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.225063333333333</v>
+      </c>
+      <c r="H24">
+        <v>3.67519</v>
+      </c>
+      <c r="I24">
+        <v>0.00279328970972399</v>
+      </c>
+      <c r="J24">
+        <v>0.00279328970972399</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.0004236251205583625</v>
+      </c>
+      <c r="P24">
+        <v>0.0004236251205583626</v>
+      </c>
+      <c r="Q24">
+        <v>0.003701324684444444</v>
+      </c>
+      <c r="R24">
+        <v>0.03331192216</v>
+      </c>
+      <c r="S24">
+        <v>1.183307690036259E-06</v>
+      </c>
+      <c r="T24">
+        <v>1.183307690036259E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.7467493333333334</v>
-      </c>
-      <c r="H19">
-        <v>2.240248</v>
-      </c>
-      <c r="I19">
-        <v>0.00199726581754988</v>
-      </c>
-      <c r="J19">
-        <v>0.001997265817549881</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>8.844986</v>
-      </c>
-      <c r="N19">
-        <v>26.534958</v>
-      </c>
-      <c r="O19">
-        <v>0.8904062077467443</v>
-      </c>
-      <c r="P19">
-        <v>0.8904062077467442</v>
-      </c>
-      <c r="Q19">
-        <v>6.604987398842668</v>
-      </c>
-      <c r="R19">
-        <v>59.44488658958401</v>
-      </c>
-      <c r="S19">
-        <v>0.00177837788246679</v>
-      </c>
-      <c r="T19">
-        <v>0.00177837788246679</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.225063333333333</v>
+      </c>
+      <c r="H25">
+        <v>3.67519</v>
+      </c>
+      <c r="I25">
+        <v>0.00279328970972399</v>
+      </c>
+      <c r="J25">
+        <v>0.00279328970972399</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.782978</v>
+      </c>
+      <c r="N25">
+        <v>17.348934</v>
+      </c>
+      <c r="O25">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="P25">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="Q25">
+        <v>7.084514305273333</v>
+      </c>
+      <c r="R25">
+        <v>63.76062874746</v>
+      </c>
+      <c r="S25">
+        <v>0.002264908099749726</v>
+      </c>
+      <c r="T25">
+        <v>0.002264908099749726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.225063333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.67519</v>
+      </c>
+      <c r="I26">
+        <v>0.00279328970972399</v>
+      </c>
+      <c r="J26">
+        <v>0.00279328970972399</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="P26">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="Q26">
+        <v>0.003596377592222223</v>
+      </c>
+      <c r="R26">
+        <v>0.03236739833000001</v>
+      </c>
+      <c r="S26">
+        <v>1.149756269433951E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.149756269433951E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4826886666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.448066</v>
+      </c>
+      <c r="I27">
+        <v>0.001100587413657846</v>
+      </c>
+      <c r="J27">
+        <v>0.001100587413657846</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.2640103333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.792031</v>
+      </c>
+      <c r="O27">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="P27">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="Q27">
+        <v>0.1274347957828889</v>
+      </c>
+      <c r="R27">
+        <v>1.146913162046</v>
+      </c>
+      <c r="S27">
+        <v>4.074070412191531E-05</v>
+      </c>
+      <c r="T27">
+        <v>4.074070412191531E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4826886666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.448066</v>
+      </c>
+      <c r="I28">
+        <v>0.001100587413657846</v>
+      </c>
+      <c r="J28">
+        <v>0.001100587413657846</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.079146666666667</v>
+      </c>
+      <c r="N28">
+        <v>3.23744</v>
+      </c>
+      <c r="O28">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="P28">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="Q28">
+        <v>0.5208918656711111</v>
+      </c>
+      <c r="R28">
+        <v>4.68802679104</v>
+      </c>
+      <c r="S28">
+        <v>0.0001665283115843363</v>
+      </c>
+      <c r="T28">
+        <v>0.0001665283115843363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4826886666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.448066</v>
+      </c>
+      <c r="I29">
+        <v>0.001100587413657846</v>
+      </c>
+      <c r="J29">
+        <v>0.001100587413657846</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.0004236251205583625</v>
+      </c>
+      <c r="P29">
+        <v>0.0004236251205583626</v>
+      </c>
+      <c r="Q29">
+        <v>0.001458363358222222</v>
+      </c>
+      <c r="R29">
+        <v>0.013125270224</v>
+      </c>
+      <c r="S29">
+        <v>4.662364757958214E-07</v>
+      </c>
+      <c r="T29">
+        <v>4.662364757958215E-07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4826886666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.448066</v>
+      </c>
+      <c r="I30">
+        <v>0.001100587413657846</v>
+      </c>
+      <c r="J30">
+        <v>0.001100587413657846</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>5.782978</v>
+      </c>
+      <c r="N30">
+        <v>17.348934</v>
+      </c>
+      <c r="O30">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="P30">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="Q30">
+        <v>2.791377940182667</v>
+      </c>
+      <c r="R30">
+        <v>25.122401461644</v>
+      </c>
+      <c r="S30">
+        <v>0.0008923991446352941</v>
+      </c>
+      <c r="T30">
+        <v>0.0008923991446352941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4826886666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.448066</v>
+      </c>
+      <c r="I31">
+        <v>0.001100587413657846</v>
+      </c>
+      <c r="J31">
+        <v>0.001100587413657846</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="P31">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="Q31">
+        <v>0.001417013029111111</v>
+      </c>
+      <c r="R31">
+        <v>0.012753117262</v>
+      </c>
+      <c r="S31">
+        <v>4.530168405046117E-07</v>
+      </c>
+      <c r="T31">
+        <v>4.530168405046117E-07</v>
       </c>
     </row>
   </sheetData>
